--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="None - genomic" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="None - genomic-sandbox" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Genomic - genomic" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Genomic - genomic-sandbox" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,10 +440,15 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>_project</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>_server</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>_database</t>
         </is>
@@ -465,10 +470,15 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.56.206.36</t>
+          <t>Genomic</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
+        <is>
+          <t>34.56.206.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>genomic</t>
         </is>
@@ -485,10 +495,15 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>34.56.206.36</t>
+          <t>Genomic</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
+        <is>
+          <t>34.56.206.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>genomic</t>
         </is>
@@ -510,10 +525,15 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>34.56.206.36</t>
+          <t>Genomic</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
+        <is>
+          <t>34.56.206.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>genomic</t>
         </is>
@@ -535,10 +555,15 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>34.56.206.36</t>
+          <t>Genomic</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
+        <is>
+          <t>34.56.206.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>genomic</t>
         </is>
@@ -555,10 +580,15 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>34.56.206.36</t>
+          <t>Genomic</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
+        <is>
+          <t>34.56.206.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>genomic</t>
         </is>
@@ -575,10 +605,15 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>34.56.206.36</t>
+          <t>Genomic</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
+        <is>
+          <t>34.56.206.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>genomic</t>
         </is>
@@ -595,10 +630,15 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>34.56.206.36</t>
+          <t>Genomic</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
+        <is>
+          <t>34.56.206.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>genomic</t>
         </is>
@@ -620,10 +660,15 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>34.56.206.36</t>
+          <t>Genomic</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
+        <is>
+          <t>34.56.206.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>genomic</t>
         </is>
@@ -645,10 +690,15 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>34.56.206.36</t>
+          <t>Genomic</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
+        <is>
+          <t>34.56.206.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>genomic</t>
         </is>
@@ -670,10 +720,15 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>34.56.206.36</t>
+          <t>Genomic</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
+        <is>
+          <t>34.56.206.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>genomic</t>
         </is>
@@ -690,10 +745,15 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>34.56.206.36</t>
+          <t>Genomic</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
+        <is>
+          <t>34.56.206.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>genomic</t>
         </is>
@@ -710,10 +770,15 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>34.56.206.36</t>
+          <t>Genomic</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
+        <is>
+          <t>34.56.206.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>genomic</t>
         </is>
@@ -730,7 +795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -756,10 +821,15 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>_project</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>_server</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>_database</t>
         </is>
@@ -781,10 +851,15 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.56.206.36</t>
+          <t>Genomic</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
+        <is>
+          <t>34.56.206.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>genomic-sandbox</t>
         </is>
@@ -801,10 +876,15 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>34.56.206.36</t>
+          <t>Genomic</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
+        <is>
+          <t>34.56.206.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>genomic-sandbox</t>
         </is>
@@ -821,10 +901,15 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>34.56.206.36</t>
+          <t>Genomic</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
+        <is>
+          <t>34.56.206.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>genomic-sandbox</t>
         </is>
@@ -846,10 +931,15 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>34.56.206.36</t>
+          <t>Genomic</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
+        <is>
+          <t>34.56.206.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>genomic-sandbox</t>
         </is>
@@ -866,10 +956,15 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>34.56.206.36</t>
+          <t>Genomic</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
+        <is>
+          <t>34.56.206.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>genomic-sandbox</t>
         </is>
@@ -886,10 +981,15 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>34.56.206.36</t>
+          <t>Genomic</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
+        <is>
+          <t>34.56.206.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>genomic-sandbox</t>
         </is>
@@ -906,10 +1006,15 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>34.56.206.36</t>
+          <t>Genomic</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
+        <is>
+          <t>34.56.206.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>genomic-sandbox</t>
         </is>
@@ -926,10 +1031,15 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>34.56.206.36</t>
+          <t>Genomic</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
+        <is>
+          <t>34.56.206.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>genomic-sandbox</t>
         </is>
@@ -946,10 +1056,15 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>34.56.206.36</t>
+          <t>Genomic</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
+        <is>
+          <t>34.56.206.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>genomic-sandbox</t>
         </is>
@@ -971,10 +1086,15 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>34.56.206.36</t>
+          <t>Genomic</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
+        <is>
+          <t>34.56.206.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>genomic-sandbox</t>
         </is>
@@ -991,10 +1111,15 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>34.56.206.36</t>
+          <t>Genomic</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
+        <is>
+          <t>34.56.206.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>genomic-sandbox</t>
         </is>
@@ -1011,10 +1136,15 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>34.56.206.36</t>
+          <t>Genomic</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
+        <is>
+          <t>34.56.206.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>genomic-sandbox</t>
         </is>
